--- a/xlsx/賴索托_intext.xlsx
+++ b/xlsx/賴索托_intext.xlsx
@@ -29,7 +29,7 @@
     <t>莱索托国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_賴索托</t>
+    <t>体育运动_体育运动_南非_賴索托</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E7%B4%A2%E6%89%98%E5%9B%BD%E5%BE%BD</t>
